--- a/extra/plant watering.xlsx
+++ b/extra/plant watering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AFC759-17D8-4C8A-B321-8FE7CE79C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED613F1-DD21-45A3-B9AA-785EC6881CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43CF1CDC-D36B-4E80-B2D3-669B0699F621}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>water pump</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>moisture sensor</t>
+  </si>
+  <si>
+    <t>jumper cables</t>
+  </si>
+  <si>
+    <t>stripboard</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +433,17 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -445,6 +457,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{795B014A-F3D4-4F39-B656-2BDD37C93FE4}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{45078594-662A-4393-8680-3E2500FD0AD1}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{71911C27-51A3-438E-9226-6C1D46DF0D18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
